--- a/results/FrequencyTables/26581162_sg362F.v1.xlsx
+++ b/results/FrequencyTables/26581162_sg362F.v1.xlsx
@@ -465,40 +465,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0111856823266219</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0134228187919463</v>
       </c>
       <c r="D2">
-        <v>0.979591836734694</v>
+        <v>0.938105891126025</v>
       </c>
       <c r="E2">
-        <v>0.0204081632653061</v>
+        <v>0.0119313944817301</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.980611483967189</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.968680089485459</v>
       </c>
       <c r="H2">
-        <v>0.0204081632653061</v>
+        <v>0.0111856823266219</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00969425801640567</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.991051454138702</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00447427293064877</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -513,25 +513,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0612244897959184</v>
+        <v>0.0380313199105145</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.029082774049217</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0134228187919463</v>
       </c>
       <c r="V2">
-        <v>0.0102040816326531</v>
+        <v>0.0141685309470544</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0104399701715138</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00820283370618941</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.967188665175242</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00671140939597315</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0104399701715138</v>
       </c>
       <c r="E3">
-        <v>0.979591836734694</v>
+        <v>0.969425801640567</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0126771066368382</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00223713646532438</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00596569724086503</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.992542878448919</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00372856077554064</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.997017151379567</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.991051454138702</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00596569724086503</v>
       </c>
       <c r="S3">
-        <v>0.989795918367347</v>
+        <v>0.954511558538404</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0186428038777032</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0052199850857569</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00298284862043251</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00894854586129754</v>
       </c>
       <c r="D4">
-        <v>0.0204081632653061</v>
+        <v>0.046234153616704</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0052199850857569</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0275913497390007</v>
       </c>
       <c r="H4">
-        <v>0.979591836734694</v>
+        <v>0.986577181208054</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.98806860551827</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.997762863534676</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00298284862043251</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0102040816326531</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00596569724086503</v>
       </c>
       <c r="R4">
-        <v>0.938775510204082</v>
+        <v>0.95600298284862</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00223713646532438</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.982848620432513</v>
       </c>
       <c r="V4">
-        <v>0.989795918367347</v>
+        <v>0.979865771812081</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.987322893363162</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.985831469052946</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0186428038777032</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.970917225950783</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0052199850857569</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0134228187919463</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0052199850857569</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00671140939597315</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.991051454138702</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.998508575689784</v>
       </c>
       <c r="O5">
-        <v>0.989795918367347</v>
+        <v>0.997762863534676</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00298284862043251</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00298284862043251</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0102040816326531</v>
+        <v>0.0149142431021626</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.977628635346756</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00223713646532438</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0052199850857569</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000745712155108128</v>
       </c>
     </row>
   </sheetData>
